--- a/public/sample_uploads/fund_units.xlsx
+++ b/public/sample_uploads/fund_units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE7A3C6-17B2-48FC-A604-C99862D31E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE0A83-4547-4670-B4E2-173D51F076E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Unit Type *</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Macro Fund</t>
   </si>
   <si>
-    <t>Capital Call 1695461797.3671792</t>
-  </si>
-  <si>
     <t>Series C</t>
   </si>
   <si>
@@ -76,25 +73,25 @@
   </si>
   <si>
     <t>Upload</t>
+  </si>
+  <si>
+    <t>Call 1</t>
+  </si>
+  <si>
+    <t>Call 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,9 +114,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +400,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -459,11 +455,11 @@
       <c r="B2">
         <v>45742046</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -474,14 +470,14 @@
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>44562</v>
       </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -491,11 +487,11 @@
       <c r="B3">
         <v>51694724</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -506,14 +502,14 @@
       <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>44562</v>
       </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -523,11 +519,11 @@
       <c r="B4">
         <v>74056403</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -538,14 +534,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>44562</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -555,11 +551,11 @@
       <c r="B5">
         <v>89972901</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -570,14 +566,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>44562</v>
       </c>
       <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -587,11 +583,11 @@
       <c r="B6">
         <v>99305538</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -602,14 +598,14 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>44562</v>
       </c>
       <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/fund_units.xlsx
+++ b/public/sample_uploads/fund_units.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE0A83-4547-4670-B4E2-173D51F076E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB0F2A-BECE-4801-8698-F7CC1E01E61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
   <si>
     <t>Unit Type *</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Folio No *</t>
   </si>
   <si>
-    <t>Call Name *</t>
-  </si>
-  <si>
     <t>Quantity *</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Update Only *</t>
   </si>
   <si>
-    <t>Macro Fund</t>
-  </si>
-  <si>
     <t>Series C</t>
   </si>
   <si>
@@ -75,23 +69,45 @@
     <t>Upload</t>
   </si>
   <si>
+    <t>SAAS Fund</t>
+  </si>
+  <si>
+    <t>Call / Distribution Name *</t>
+  </si>
+  <si>
     <t>Call 1</t>
   </si>
   <si>
-    <t>Call 2</t>
+    <t>Distribution 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,15 +127,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B9AF27B4-0A89-4098-9321-CFD5D0AA28C6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{58B4B378-09D0-4A75-A360-E41F7576C74A}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{A8E4C729-EEB6-4CAF-9CDF-579F6459B276}"/>
+    <cellStyle name="Normal 5" xfId="2" xr:uid="{1984C030-C09F-4D78-8285-663EB4C8CE6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,17 +423,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.265625" bestFit="1" customWidth="1"/>
@@ -424,42 +450,42 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>45742046</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -474,24 +500,24 @@
         <v>44562</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>51694724</v>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -506,24 +532,24 @@
         <v>44562</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>74056403</v>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -538,24 +564,24 @@
         <v>44562</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>89972901</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -570,24 +596,24 @@
         <v>44562</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>99305538</v>
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -602,10 +628,170 @@
         <v>44562</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44927</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44927</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>-15</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44927</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>-20</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44927</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>-25</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44927</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/fund_units.xlsx
+++ b/public/sample_uploads/fund_units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB0F2A-BECE-4801-8698-F7CC1E01E61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE775DE-8AD0-44BF-9E30-62CE8B91F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>Unit Type *</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Update Only *</t>
-  </si>
-  <si>
-    <t>Series C</t>
   </si>
   <si>
     <t>Series A</t>
@@ -134,11 +131,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +425,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D7" sqref="D7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -450,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -476,15 +475,15 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2">
@@ -500,23 +499,23 @@
         <v>44562</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3">
@@ -532,23 +531,23 @@
         <v>44562</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
@@ -564,23 +563,23 @@
         <v>44562</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5">
@@ -596,24 +595,24 @@
         <v>44562</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -628,23 +627,23 @@
         <v>44562</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7">
@@ -660,23 +659,23 @@
         <v>44927</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8">
@@ -692,23 +691,23 @@
         <v>44927</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E9">
@@ -724,23 +723,23 @@
         <v>44927</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E10">
@@ -756,24 +755,24 @@
         <v>44927</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E11">
         <v>-25</v>
@@ -788,10 +787,10 @@
         <v>44927</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/fund_units.xlsx
+++ b/public/sample_uploads/fund_units.xlsx
@@ -1,29 +1,292 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE775DE-8AD0-44BF-9E30-62CE8B91F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BDA0F-C657-4B97-A5C0-FB89D0BA7D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D8015BE8-BCAE-4E75-93E0-7E5807837EBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Fund name as recorded on CapHive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9B51451F-CF92-4003-AB2B-FE9E01D925A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory, needed for mapping to the appropriate folio.  
+If needed you may download the list of commiments which will give the Investor Name and Folio No.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{10F818D3-5D58-4128-9BCB-244A7D4BCAE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Capital Call name as created.  This needs to be an exact match to link the units</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9F4CA47F-A277-4D7F-B09F-3A4884E2C0B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-Need to match unit type mentioned for the relevant commitment </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4EAA84CD-1F5D-4A55-B079-BFA483917BA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-Incase of redemption please specify a negative quantity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FAC5217E-DD08-47A8-A3D8-B7CB6DE76874}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{8CB78BAD-0C2B-4245-A452-23FD9D385476}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{23EF446F-EE02-4E97-BB9F-C0774E4E48B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory in dd/mm/yyyy format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D3A9AAD7-9DE8-45FB-AFD5-B331CDAD3E6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-Incase of 'yes', all data mentioned in the sheet including blank fields will override the exisitng data on the platform</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F53642D7-B90C-46B7-8D17-331C06A28374}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
@@ -63,26 +326,26 @@
     <t>No</t>
   </si>
   <si>
+    <t>SAAS Fund</t>
+  </si>
+  <si>
+    <t>Call / Distribution Name *</t>
+  </si>
+  <si>
+    <t>Call 1</t>
+  </si>
+  <si>
+    <t>Distribution 1</t>
+  </si>
+  <si>
     <t>Upload</t>
-  </si>
-  <si>
-    <t>SAAS Fund</t>
-  </si>
-  <si>
-    <t>Call / Distribution Name *</t>
-  </si>
-  <si>
-    <t>Call 1</t>
-  </si>
-  <si>
-    <t>Distribution 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +369,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,12 +403,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -131,13 +428,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,379 +719,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6">
+        <v>44562</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6">
+        <v>44562</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H4" s="6">
+        <v>44562</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44562</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>44562</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44562</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44562</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>44562</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44562</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44562</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>-5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6">
         <v>44927</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>-10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>100</v>
       </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6">
         <v>44927</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44927</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44927</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>-15</v>
-      </c>
-      <c r="F9">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-25</v>
+      </c>
+      <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
         <v>44927</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="J11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>-20</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>44927</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>-25</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>44927</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I12 I13:I1048576" xr:uid="{54D18418-8CEB-4A69-BD47-BA9813FB90C9}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>